--- a/Example input/MDEasternShore (maize)/MD-DE inputs.xlsx
+++ b/Example input/MDEasternShore (maize)/MD-DE inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E445D9C2-A08A-4B68-AE78-31671D59E3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A561486-B721-47D0-908F-7654847D839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9036" tabRatio="824" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9072" tabRatio="824" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="256">
   <si>
     <t>Date</t>
   </si>
@@ -906,67 +906,94 @@
     <t>RowSpacing(cm)</t>
   </si>
   <si>
+    <t>altitude(m)</t>
+  </si>
+  <si>
+    <t>seedDepth</t>
+  </si>
+  <si>
+    <t>Humus_C</t>
+  </si>
+  <si>
+    <t>Humus_N</t>
+  </si>
+  <si>
+    <t>Litter_C</t>
+  </si>
+  <si>
+    <t>Litter_N</t>
+  </si>
+  <si>
+    <t>Manure_C</t>
+  </si>
+  <si>
+    <t>Manure_N</t>
+  </si>
+  <si>
+    <t>CO2(ppm)</t>
+  </si>
+  <si>
+    <t>O2(ppm)</t>
+  </si>
+  <si>
+    <t>Litter_C(kg/ha)</t>
+  </si>
+  <si>
+    <t>MD_Del_Weather.csv</t>
+  </si>
+  <si>
+    <t>Till(1/0)</t>
+  </si>
+  <si>
+    <t>DaysBeforePlanting</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>GasBCTop</t>
+  </si>
+  <si>
+    <t>GasBCBottom</t>
+  </si>
+  <si>
+    <t>soilfile</t>
+  </si>
+  <si>
+    <t>RunToEnd</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Caswell</t>
+  </si>
+  <si>
+    <t>Piedmont</t>
+  </si>
+  <si>
+    <t>Caswell.soi</t>
+  </si>
+  <si>
+    <t>Piedmont.soi</t>
+  </si>
+  <si>
+    <t>DEL08</t>
+  </si>
+  <si>
+    <t>DEL09</t>
+  </si>
+  <si>
+    <t>Del08</t>
+  </si>
+  <si>
+    <t>Del09</t>
+  </si>
+  <si>
     <t>Population(p/ha)</t>
-  </si>
-  <si>
-    <t>altitude(m)</t>
-  </si>
-  <si>
-    <t>seedDepth</t>
-  </si>
-  <si>
-    <t>Humus_C</t>
-  </si>
-  <si>
-    <t>Humus_N</t>
-  </si>
-  <si>
-    <t>Litter_C</t>
-  </si>
-  <si>
-    <t>Litter_N</t>
-  </si>
-  <si>
-    <t>Manure_C</t>
-  </si>
-  <si>
-    <t>Manure_N</t>
-  </si>
-  <si>
-    <t>CO2(ppm)</t>
-  </si>
-  <si>
-    <t>O2(ppm)</t>
-  </si>
-  <si>
-    <t>Litter_C(kg/ha)</t>
-  </si>
-  <si>
-    <t>MD_Del_Weather.csv</t>
-  </si>
-  <si>
-    <t>Till(1/0)</t>
-  </si>
-  <si>
-    <t>DaysBeforePlanting</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>GasBCTop</t>
-  </si>
-  <si>
-    <t>GasBCBottom</t>
-  </si>
-  <si>
-    <t>soilfile</t>
-  </si>
-  <si>
-    <t>RunToEnd</t>
-  </si>
-  <si>
-    <t>Altitude</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1920,6 +1947,132 @@
         <v>222</v>
       </c>
     </row>
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" ref="F7:F8" si="1">E7&amp; ".var"</f>
+        <v>PI33B53.var</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P7" t="s">
+        <v>207</v>
+      </c>
+      <c r="R7" t="s">
+        <v>219</v>
+      </c>
+      <c r="S7" t="s">
+        <v>221</v>
+      </c>
+      <c r="T7" t="s">
+        <v>220</v>
+      </c>
+      <c r="U7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PI33B53.var</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" t="s">
+        <v>195</v>
+      </c>
+      <c r="P8" t="s">
+        <v>207</v>
+      </c>
+      <c r="R8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S8" t="s">
+        <v>221</v>
+      </c>
+      <c r="T8" t="s">
+        <v>220</v>
+      </c>
+      <c r="U8" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,10 +2082,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>5</v>
@@ -1964,7 +2117,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>171</v>
@@ -1988,7 +2141,7 @@
         <v>47</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>48</v>
@@ -2268,6 +2421,112 @@
         <v>1</v>
       </c>
       <c r="R6" s="5">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7">
+        <v>73000</v>
+      </c>
+      <c r="C7">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="D7">
+        <v>76.55</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>39195</v>
+      </c>
+      <c r="G7" s="1">
+        <v>39202</v>
+      </c>
+      <c r="H7" s="1">
+        <v>39353</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8">
+        <v>73000</v>
+      </c>
+      <c r="C8">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="D8">
+        <v>76.55</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>39195</v>
+      </c>
+      <c r="G8" s="1">
+        <v>39202</v>
+      </c>
+      <c r="H8" s="1">
+        <v>39353</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>8</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
         <v>76.2</v>
       </c>
     </row>
@@ -2287,7 +2546,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,13 +2605,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView topLeftCell="G11" workbookViewId="0">
-      <pane xSplit="18864" ySplit="996" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <pane xSplit="18852" ySplit="996" activePane="bottomLeft"/>
       <selection activeCell="O11" sqref="O1:O1048576"/>
       <selection pane="topRight" sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A10"/>
       <selection pane="bottomRight" activeCell="A11" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
@@ -2379,22 +2638,22 @@
         <v>15</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>16</v>
@@ -2409,10 +2668,10 @@
         <v>18</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>19</v>
@@ -3035,41 +3294,1077 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AI6" s="8"/>
-    </row>
-    <row r="7" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AI7" s="8"/>
-    </row>
-    <row r="8" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AI8" s="8"/>
-    </row>
-    <row r="9" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AI9" s="8"/>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>-200</v>
+      </c>
+      <c r="N6">
+        <v>25</v>
+      </c>
+      <c r="O6">
+        <v>400</v>
+      </c>
+      <c r="P6">
+        <v>206000</v>
+      </c>
+      <c r="Q6">
+        <v>83</v>
+      </c>
+      <c r="R6">
+        <v>11</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="U6">
+        <v>0.158</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
+        <v>-1</v>
+      </c>
+      <c r="AD6">
+        <v>-1</v>
+      </c>
+      <c r="AE6">
+        <v>-1</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AG6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AH6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI6">
+        <v>0.2</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK6">
+        <v>0.6</v>
+      </c>
+      <c r="AL6">
+        <v>0.2</v>
+      </c>
+      <c r="AM6">
+        <v>10</v>
+      </c>
+      <c r="AN6">
+        <v>50</v>
+      </c>
+      <c r="AO6">
+        <v>10</v>
+      </c>
+      <c r="AP6">
+        <v>0.1</v>
+      </c>
+      <c r="AQ6">
+        <v>8</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>-200</v>
+      </c>
+      <c r="N7">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>400</v>
+      </c>
+      <c r="P7">
+        <v>206000</v>
+      </c>
+      <c r="Q7">
+        <v>85</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>1.43</v>
+      </c>
+      <c r="U7">
+        <v>0.17</v>
+      </c>
+      <c r="V7">
+        <v>-1</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
+        <v>-1</v>
+      </c>
+      <c r="AD7">
+        <v>-1</v>
+      </c>
+      <c r="AE7">
+        <v>-1</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AG7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AH7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI7">
+        <v>0.2</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK7">
+        <v>0.6</v>
+      </c>
+      <c r="AL7">
+        <v>0.2</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>50</v>
+      </c>
+      <c r="AO7">
+        <v>10</v>
+      </c>
+      <c r="AP7">
+        <v>0.1</v>
+      </c>
+      <c r="AQ7">
+        <v>8</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>-200</v>
+      </c>
+      <c r="N8">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>400</v>
+      </c>
+      <c r="P8">
+        <v>206000</v>
+      </c>
+      <c r="Q8">
+        <v>60</v>
+      </c>
+      <c r="R8">
+        <v>17</v>
+      </c>
+      <c r="S8">
+        <v>23</v>
+      </c>
+      <c r="T8">
+        <v>1.41</v>
+      </c>
+      <c r="U8">
+        <v>0.24</v>
+      </c>
+      <c r="V8">
+        <v>-1</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
+        <v>-1</v>
+      </c>
+      <c r="AD8">
+        <v>-1</v>
+      </c>
+      <c r="AE8">
+        <v>-1</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AG8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AH8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI8">
+        <v>0.2</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK8">
+        <v>0.6</v>
+      </c>
+      <c r="AL8">
+        <v>0.2</v>
+      </c>
+      <c r="AM8">
+        <v>10</v>
+      </c>
+      <c r="AN8">
+        <v>50</v>
+      </c>
+      <c r="AO8">
+        <v>10</v>
+      </c>
+      <c r="AP8">
+        <v>0.1</v>
+      </c>
+      <c r="AQ8">
+        <v>8</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>-200</v>
+      </c>
+      <c r="N9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>400</v>
+      </c>
+      <c r="P9">
+        <v>206000</v>
+      </c>
+      <c r="Q9">
+        <v>60</v>
+      </c>
+      <c r="R9">
+        <v>17</v>
+      </c>
+      <c r="S9">
+        <v>23</v>
+      </c>
+      <c r="T9">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="U9">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="V9">
+        <v>-1</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
+        <v>-1</v>
+      </c>
+      <c r="AD9">
+        <v>-1</v>
+      </c>
+      <c r="AE9">
+        <v>-1</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AG9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AH9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI9">
+        <v>0.2</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK9">
+        <v>0.6</v>
+      </c>
+      <c r="AL9">
+        <v>0.2</v>
+      </c>
+      <c r="AM9">
+        <v>10</v>
+      </c>
+      <c r="AN9">
+        <v>50</v>
+      </c>
+      <c r="AO9">
+        <v>10</v>
+      </c>
+      <c r="AP9">
+        <v>0.1</v>
+      </c>
+      <c r="AQ9">
+        <v>8</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>-200</v>
+      </c>
+      <c r="N10">
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <v>400</v>
+      </c>
+      <c r="P10">
+        <v>206000</v>
+      </c>
+      <c r="Q10">
+        <v>33.5</v>
+      </c>
+      <c r="R10">
+        <v>36.5</v>
+      </c>
+      <c r="S10">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
+        <v>-1</v>
+      </c>
+      <c r="AD10">
+        <v>-1</v>
+      </c>
+      <c r="AE10">
+        <v>-1</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AG10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AH10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI10">
+        <v>0.2</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK10">
+        <v>0.6</v>
+      </c>
+      <c r="AL10">
+        <v>0.2</v>
+      </c>
+      <c r="AM10">
+        <v>10</v>
+      </c>
+      <c r="AN10">
+        <v>50</v>
+      </c>
+      <c r="AO10">
+        <v>10</v>
+      </c>
+      <c r="AP10">
+        <v>0.1</v>
+      </c>
+      <c r="AQ10">
+        <v>8</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>-200</v>
+      </c>
+      <c r="N11">
+        <v>25</v>
+      </c>
+      <c r="O11">
+        <v>400</v>
+      </c>
+      <c r="P11">
+        <v>206000</v>
+      </c>
+      <c r="Q11">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R11">
+        <v>27.9</v>
+      </c>
+      <c r="S11">
+        <v>55</v>
+      </c>
+      <c r="T11">
+        <v>0.99</v>
+      </c>
+      <c r="U11">
+        <v>0.39</v>
+      </c>
+      <c r="V11">
+        <v>-1</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
+        <v>-1</v>
+      </c>
+      <c r="AD11">
+        <v>-1</v>
+      </c>
+      <c r="AE11">
+        <v>-1</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AG11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AH11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI11">
+        <v>0.2</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK11">
+        <v>0.6</v>
+      </c>
+      <c r="AL11">
+        <v>0.2</v>
+      </c>
+      <c r="AM11">
+        <v>10</v>
+      </c>
+      <c r="AN11">
+        <v>50</v>
+      </c>
+      <c r="AO11">
+        <v>10</v>
+      </c>
+      <c r="AP11">
+        <v>0.1</v>
+      </c>
+      <c r="AQ11">
+        <v>8</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>-200</v>
+      </c>
+      <c r="N12">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <v>400</v>
+      </c>
+      <c r="P12">
+        <v>206000</v>
+      </c>
+      <c r="Q12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="R12">
+        <v>31.7</v>
+      </c>
+      <c r="S12">
+        <v>35</v>
+      </c>
+      <c r="T12">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="U12">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
+        <v>-1</v>
+      </c>
+      <c r="AD12">
+        <v>-1</v>
+      </c>
+      <c r="AE12">
+        <v>-1</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AG12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AH12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI12">
+        <v>0.2</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK12">
+        <v>0.6</v>
+      </c>
+      <c r="AL12">
+        <v>0.2</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>50</v>
+      </c>
+      <c r="AO12">
+        <v>10</v>
+      </c>
+      <c r="AP12">
+        <v>0.1</v>
+      </c>
+      <c r="AQ12">
+        <v>8</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>-200</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>400</v>
+      </c>
+      <c r="P13">
+        <v>206000</v>
+      </c>
+      <c r="Q13">
+        <v>38.5</v>
+      </c>
+      <c r="R13">
+        <v>36.5</v>
+      </c>
+      <c r="S13">
+        <v>25</v>
+      </c>
+      <c r="T13">
+        <v>1.262</v>
+      </c>
+      <c r="U13">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
+        <v>-1</v>
+      </c>
+      <c r="AD13">
+        <v>-1</v>
+      </c>
+      <c r="AE13">
+        <v>-1</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AG13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AH13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI13">
+        <v>0.2</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK13">
+        <v>0.6</v>
+      </c>
+      <c r="AL13">
+        <v>0.2</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+      <c r="AN13">
+        <v>50</v>
+      </c>
+      <c r="AO13">
+        <v>10</v>
+      </c>
+      <c r="AP13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ13">
+        <v>8</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3135,10 +4430,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3185,7 +4480,7 @@
         <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3375,6 +4670,82 @@
         <v>1</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39187</v>
+      </c>
+      <c r="C7" s="1">
+        <v>39365</v>
+      </c>
+      <c r="D7">
+        <v>1E-4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F7">
+        <v>1.3</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="1">
+        <v>39187</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39365</v>
+      </c>
+      <c r="D8">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F8">
+        <v>1.3</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
@@ -3810,7 +5181,7 @@
         <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -3827,7 +5198,7 @@
         <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -3844,7 +5215,7 @@
         <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -3861,7 +5232,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -3878,7 +5249,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -4288,7 +5659,7 @@
         <v>45</v>
       </c>
       <c r="W1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
@@ -4461,7 +5832,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -4495,16 +5866,16 @@
         <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="I1" t="s">
         <v>157</v>
@@ -4519,42 +5890,50 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="16">
-        <v>38847</v>
-      </c>
-      <c r="C2" s="4">
-        <v>60</v>
-      </c>
-      <c r="D2" s="4">
+        <v>38838</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>38838</v>
+      </c>
+      <c r="J2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="16">
-        <v>38882</v>
+        <v>38847</v>
       </c>
       <c r="C3" s="4">
         <v>60</v>
@@ -4574,16 +5953,20 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="16">
-        <v>39212</v>
+        <v>38882</v>
       </c>
       <c r="C4" s="4">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
@@ -4606,7 +5989,7 @@
         <v>123</v>
       </c>
       <c r="B5" s="16">
-        <v>39247</v>
+        <v>39212</v>
       </c>
       <c r="C5" s="4">
         <v>65</v>
@@ -4629,10 +6012,10 @@
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="16">
-        <v>39605</v>
+        <v>39247</v>
       </c>
       <c r="C6" s="4">
         <v>65</v>
@@ -4658,7 +6041,7 @@
         <v>124</v>
       </c>
       <c r="B7" s="16">
-        <v>39635</v>
+        <v>39605</v>
       </c>
       <c r="C7" s="4">
         <v>65</v>
@@ -4681,13 +6064,13 @@
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="1">
-        <v>38827</v>
+        <v>124</v>
+      </c>
+      <c r="B8" s="16">
+        <v>39635</v>
       </c>
       <c r="C8" s="4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -4704,35 +6087,43 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="1">
-        <v>38861</v>
+      <c r="B9" s="16">
+        <v>38816</v>
       </c>
       <c r="C9" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>38816</v>
+      </c>
+      <c r="J9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
+      <c r="L9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4740,7 +6131,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="1">
-        <v>38878</v>
+        <v>38827</v>
       </c>
       <c r="C10" s="4">
         <v>60</v>
@@ -4760,13 +6151,17 @@
       <c r="H10" s="4">
         <v>0</v>
       </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="1">
-        <v>38892</v>
+        <v>38861</v>
       </c>
       <c r="C11" s="4">
         <v>60</v>
@@ -4792,7 +6187,7 @@
         <v>125</v>
       </c>
       <c r="B12" s="1">
-        <v>38913</v>
+        <v>38878</v>
       </c>
       <c r="C12" s="4">
         <v>60</v>
@@ -4818,7 +6213,7 @@
         <v>125</v>
       </c>
       <c r="B13" s="1">
-        <v>38944</v>
+        <v>38892</v>
       </c>
       <c r="C13" s="4">
         <v>60</v>
@@ -4841,10 +6236,10 @@
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1">
-        <v>39212</v>
+        <v>38913</v>
       </c>
       <c r="C14" s="4">
         <v>60</v>
@@ -4867,10 +6262,10 @@
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="1">
-        <v>39226</v>
+        <v>38944</v>
       </c>
       <c r="C15" s="4">
         <v>60</v>
@@ -4896,7 +6291,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="1">
-        <v>39243</v>
+        <v>39212</v>
       </c>
       <c r="C16" s="4">
         <v>60</v>
@@ -4922,7 +6317,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="1">
-        <v>39257</v>
+        <v>39226</v>
       </c>
       <c r="C17" s="4">
         <v>60</v>
@@ -4948,7 +6343,7 @@
         <v>126</v>
       </c>
       <c r="B18" s="1">
-        <v>39278</v>
+        <v>39243</v>
       </c>
       <c r="C18" s="4">
         <v>60</v>
@@ -4974,7 +6369,7 @@
         <v>126</v>
       </c>
       <c r="B19" s="1">
-        <v>39309</v>
+        <v>39257</v>
       </c>
       <c r="C19" s="4">
         <v>60</v>
@@ -4992,6 +6387,58 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1">
+        <v>39278</v>
+      </c>
+      <c r="C20" s="4">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="1">
+        <v>39309</v>
+      </c>
+      <c r="C21" s="4">
+        <v>60</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5003,10 +6450,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5020,7 +6467,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>66</v>
@@ -5044,10 +6491,10 @@
         <v>163</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="K1" t="s">
         <v>164</v>
@@ -5085,6 +6532,76 @@
         <v>1</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3">
+        <v>1.6</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>2.1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>-2</v>
+      </c>
+      <c r="I3">
+        <v>-4</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>1.6</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>2.1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>-2</v>
+      </c>
+      <c r="I4">
+        <v>-4</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -5112,13 +6629,13 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" t="s">
         <v>239</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>240</v>
-      </c>
-      <c r="D1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/Example input/MDEasternShore (maize)/MD-DE inputs.xlsx
+++ b/Example input/MDEasternShore (maize)/MD-DE inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A561486-B721-47D0-908F-7654847D839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6595FC-1BCC-4E92-84D9-C60DA00E762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9072" tabRatio="824" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4152" yWindow="324" windowWidth="18156" windowHeight="11400" tabRatio="824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -994,6 +994,9 @@
   </si>
   <si>
     <t>Population(p/ha)</t>
+  </si>
+  <si>
+    <t>amount (mm/day)</t>
   </si>
 </sst>
 </file>
@@ -5581,7 +5584,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5834,8 +5837,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6660,10 +6663,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6680,8 +6683,17 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Example input/MDEasternShore (maize)/MD-DE inputs.xlsx
+++ b/Example input/MDEasternShore (maize)/MD-DE inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6595FC-1BCC-4E92-84D9-C60DA00E762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49F887B-9BE0-4447-B95F-42BD16E0FC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="324" windowWidth="18156" windowHeight="11400" tabRatio="824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29490" yWindow="2265" windowWidth="26445" windowHeight="11295" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Weather" sheetId="7" r:id="rId16"/>
     <sheet name="MulchGeo" sheetId="18" r:id="rId17"/>
     <sheet name="MulchDecomp" sheetId="19" r:id="rId18"/>
+    <sheet name="WaterMovParam" sheetId="22" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="delete" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,6 +35,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="17" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="18" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,6 +54,117 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FF4B17AE-B4F4-4863-B8C2-A5078265BD0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rate for sprinkler or ponding when ponded as a flow of water into the field
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A7DEB455-EB6A-4DA3-8927-C72D86D0342B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+the target ponded depth for flow infil or constant depth</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D5EE3760-C8B8-41CF-92B8-063C5A2B045C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type can be:
+flood_H flooding as a depth of water
+flood_R flooding as a rate of water input
+sprinkler
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D66A017A-D96F-44E6-9B9C-D8CCDB3B6B24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hour of day 0-23</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -124,7 +237,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -196,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="291">
   <si>
     <t>Date</t>
   </si>
@@ -741,9 +854,6 @@
     <t>nodes</t>
   </si>
   <si>
-    <t>begin_date</t>
-  </si>
-  <si>
     <t>autoIrrigAmt</t>
   </si>
   <si>
@@ -997,6 +1107,111 @@
   </si>
   <si>
     <t>amount (mm/day)</t>
+  </si>
+  <si>
+    <t>Gas_N2O</t>
+  </si>
+  <si>
+    <t>GasN2ODefault</t>
+  </si>
+  <si>
+    <t>WaterMovParam</t>
+  </si>
+  <si>
+    <t>WaterMovDefault</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>date_end</t>
+  </si>
+  <si>
+    <t>Depth (mm)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>start_hour</t>
+  </si>
+  <si>
+    <t>end_hour</t>
+  </si>
+  <si>
+    <t>there are 3 types of irrigation</t>
+  </si>
+  <si>
+    <t>flood_H</t>
+  </si>
+  <si>
+    <t>flooding by applying ponded water head</t>
+  </si>
+  <si>
+    <t>flood_R</t>
+  </si>
+  <si>
+    <t>flooding by applying a rate of water application over time</t>
+  </si>
+  <si>
+    <t>Sprinkler</t>
+  </si>
+  <si>
+    <t>overhead sprinkler</t>
+  </si>
+  <si>
+    <t>sprinkler</t>
+  </si>
+  <si>
+    <t>enter date_start and date_end, depth start_hour and end_hour and depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood_R </t>
+  </si>
+  <si>
+    <t>enter date_start and date_end, depth start_hour and end_hour and amount</t>
+  </si>
+  <si>
+    <t>enter date start and amount</t>
+  </si>
+  <si>
+    <t>N2O(ppm)</t>
+  </si>
+  <si>
+    <t>MaxIt</t>
+  </si>
+  <si>
+    <t>TolTh</t>
+  </si>
+  <si>
+    <t>TolH</t>
+  </si>
+  <si>
+    <t>hCritA</t>
+  </si>
+  <si>
+    <t>hCritS</t>
+  </si>
+  <si>
+    <t>DtMx</t>
+  </si>
+  <si>
+    <t>htab1</t>
+  </si>
+  <si>
+    <t>htabN</t>
+  </si>
+  <si>
+    <t>EPSI.Heat</t>
+  </si>
+  <si>
+    <t>EPSI.Solute</t>
+  </si>
+  <si>
+    <t>begin date</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1357,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,7 +1394,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1211,7 +1425,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F4987DB0-1748-42F5-93D4-B047AD4E6906}"/>
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1229,9 +1444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1269,9 +1484,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,26 +1519,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1356,26 +1554,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1550,30 +1731,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="8" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1581,10 +1762,10 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1596,7 +1777,7 @@
         <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -1617,25 +1798,31 @@
         <v>120</v>
       </c>
       <c r="O1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" t="s">
         <v>208</v>
-      </c>
-      <c r="P1" t="s">
-        <v>209</v>
       </c>
       <c r="R1" t="s">
         <v>215</v>
       </c>
       <c r="S1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T1" t="s">
         <v>216</v>
       </c>
       <c r="U1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="V1" t="s">
+        <v>217</v>
+      </c>
+      <c r="W1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -1643,7 +1830,7 @@
         <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>127</v>
@@ -1680,25 +1867,31 @@
         <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R2" t="s">
         <v>219</v>
       </c>
       <c r="S2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T2" t="s">
         <v>220</v>
       </c>
       <c r="U2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="V2" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
@@ -1706,7 +1899,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>128</v>
@@ -1743,25 +1936,31 @@
         <v>119</v>
       </c>
       <c r="O3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R3" t="s">
         <v>219</v>
       </c>
       <c r="S3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T3" t="s">
         <v>220</v>
       </c>
       <c r="U3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="V3" t="s">
+        <v>221</v>
+      </c>
+      <c r="W3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -1769,7 +1968,7 @@
         <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>129</v>
@@ -1806,25 +2005,31 @@
         <v>119</v>
       </c>
       <c r="O4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R4" t="s">
         <v>219</v>
       </c>
       <c r="S4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T4" t="s">
         <v>220</v>
       </c>
       <c r="U4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="V4" t="s">
+        <v>221</v>
+      </c>
+      <c r="W4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
@@ -1832,7 +2037,7 @@
         <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>156</v>
@@ -1869,25 +2074,31 @@
         <v>119</v>
       </c>
       <c r="O5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R5" t="s">
         <v>219</v>
       </c>
       <c r="S5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T5" t="s">
         <v>220</v>
       </c>
       <c r="U5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="V5" t="s">
+        <v>221</v>
+      </c>
+      <c r="W5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>126</v>
       </c>
@@ -1895,7 +2106,7 @@
         <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>130</v>
@@ -1932,33 +2143,39 @@
         <v>119</v>
       </c>
       <c r="O6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R6" t="s">
         <v>219</v>
       </c>
       <c r="S6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T6" t="s">
         <v>220</v>
       </c>
       <c r="U6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="V6" t="s">
+        <v>221</v>
+      </c>
+      <c r="W6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>130</v>
@@ -1989,39 +2206,45 @@
         <v>99</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>119</v>
       </c>
       <c r="O7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R7" t="s">
         <v>219</v>
       </c>
       <c r="S7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T7" t="s">
         <v>220</v>
       </c>
       <c r="U7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="V7" t="s">
+        <v>221</v>
+      </c>
+      <c r="W7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>130</v>
@@ -2052,28 +2275,34 @@
         <v>99</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>119</v>
       </c>
       <c r="O8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R8" t="s">
         <v>219</v>
       </c>
       <c r="S8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T8" t="s">
         <v>220</v>
       </c>
       <c r="U8" t="s">
-        <v>222</v>
+        <v>257</v>
+      </c>
+      <c r="V8" t="s">
+        <v>221</v>
+      </c>
+      <c r="W8" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2088,30 +2317,30 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.109375" style="5"/>
-    <col min="16" max="16" width="14.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="14.140625" style="5" customWidth="1"/>
     <col min="17" max="17" width="14" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>5</v>
@@ -2120,10 +2349,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>7</v>
@@ -2135,7 +2364,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>46</v>
@@ -2144,7 +2373,7 @@
         <v>47</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>48</v>
@@ -2159,10 +2388,10 @@
         <v>51</v>
       </c>
       <c r="R1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -2215,7 +2444,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
@@ -2268,7 +2497,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -2321,7 +2550,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
@@ -2374,7 +2603,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>126</v>
       </c>
@@ -2427,9 +2656,9 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7">
         <v>73000</v>
@@ -2480,9 +2709,9 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8">
         <v>73000</v>
@@ -2546,58 +2775,74 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F092DE-2955-426B-B085-0C5553C37DAF}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="16.5703125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="18"/>
+    <col min="4" max="4" width="23.140625" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="19">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2">
         <v>0.65</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2">
         <v>11920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="19">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3">
         <v>0.65</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3">
         <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.65</v>
+      </c>
+      <c r="D4">
+        <v>12355.2</v>
       </c>
     </row>
   </sheetData>
@@ -2608,26 +2853,26 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="18852" ySplit="996" activePane="bottomLeft"/>
-      <selection activeCell="O11" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="W11" workbookViewId="0">
+      <pane xSplit="23685" ySplit="990" activePane="bottomLeft"/>
+      <selection activeCell="Q11" sqref="Q1:Q1048576"/>
       <selection pane="topRight" sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A10"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A1:A11"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="11" width="14.77734375" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="22" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="23" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2635,28 +2880,28 @@
         <v>14</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>16</v>
@@ -2665,103 +2910,106 @@
         <v>17</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>235</v>
-      </c>
       <c r="Q1" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AM1" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="AN1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AS1" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>144</v>
       </c>
@@ -2769,7 +3017,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>2.5000000000000001E-3</v>
@@ -2811,91 +3059,94 @@
         <v>206000</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>75</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>20</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.26</v>
       </c>
-      <c r="U2">
-        <v>-1</v>
-      </c>
       <c r="V2">
         <v>-1</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X2" s="8">
+      <c r="Y2" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Z2" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="AA2" s="8">
         <v>0.2</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AB2" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>0.6</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.2</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>10</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>50</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>10</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.1</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>8</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AJ2" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>0.39600000000000002</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>0.39600000000000002</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>1.85</v>
-      </c>
-      <c r="AP2">
-        <v>120</v>
       </c>
       <c r="AQ2">
         <v>120</v>
       </c>
       <c r="AR2">
+        <v>120</v>
+      </c>
+      <c r="AS2">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>144</v>
       </c>
@@ -2903,7 +3154,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3">
         <v>2.5000000000000001E-3</v>
@@ -2945,91 +3196,94 @@
         <v>206000</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>80</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>15</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>5</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1.33</v>
       </c>
-      <c r="U3">
-        <v>-1</v>
-      </c>
       <c r="V3">
         <v>-1</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Y3" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Z3" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AA3" s="8">
         <v>0.2</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AB3" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.6</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.2</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>10</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>50</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>10</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>8</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AJ3" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.43</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.43</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>1.75</v>
-      </c>
-      <c r="AP3">
-        <v>86</v>
       </c>
       <c r="AQ3">
         <v>86</v>
       </c>
       <c r="AR3">
+        <v>86</v>
+      </c>
+      <c r="AS3">
         <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>144</v>
       </c>
@@ -3037,7 +3291,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4">
         <v>2.5000000000000001E-3</v>
@@ -3079,91 +3333,94 @@
         <v>206000</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>85</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>14</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>6</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1.36</v>
       </c>
-      <c r="U4">
-        <v>-1</v>
-      </c>
       <c r="V4">
         <v>-1</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Y4" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Z4" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AA4" s="8">
         <v>0.2</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AB4" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.6</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.2</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>10</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>50</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>10</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0.1</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AJ4" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0.01</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>0.39</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.01</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>0.39</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1.9E-2</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>1.6</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>60</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>30</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>0.39</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>144</v>
       </c>
@@ -3171,7 +3428,7 @@
         <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5">
         <v>1.25E-3</v>
@@ -3213,99 +3470,102 @@
         <v>206000</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>90</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>10</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>1.36</v>
       </c>
-      <c r="U5">
-        <v>-1</v>
-      </c>
       <c r="V5">
         <v>-1</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Z5" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AA5" s="8">
         <v>0.2</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AB5" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.6</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0.2</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>10</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>50</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>10</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.1</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>8</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AJ5" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.01</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.3</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.01</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>0.3</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1.9E-2</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>1.4</v>
-      </c>
-      <c r="AP5">
-        <v>25</v>
       </c>
       <c r="AQ5">
         <v>25</v>
       </c>
       <c r="AR5">
+        <v>25</v>
+      </c>
+      <c r="AS5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6">
         <v>1.4999999999999999E-2</v>
@@ -3347,23 +3607,23 @@
         <v>206000</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>83</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>11</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>6</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1.3919999999999999</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.158</v>
       </c>
-      <c r="V6">
-        <v>-1</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
@@ -3391,55 +3651,58 @@
       <c r="AE6">
         <v>-1</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6">
+        <v>-1</v>
+      </c>
+      <c r="AG6" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.2</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AK6" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>0.6</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>0.2</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>10</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>50</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>10</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>0.1</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>8</v>
       </c>
-      <c r="AR6" s="8">
+      <c r="AS6" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7">
         <v>2.5000000000000001E-3</v>
@@ -3481,23 +3744,23 @@
         <v>206000</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>85</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>11</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>4</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.43</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.17</v>
       </c>
-      <c r="V7">
-        <v>-1</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
@@ -3525,55 +3788,58 @@
       <c r="AE7">
         <v>-1</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7">
+        <v>-1</v>
+      </c>
+      <c r="AG7" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>0.2</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AK7" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>0.6</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>0.2</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>10</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>50</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>10</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>0.1</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>8</v>
       </c>
-      <c r="AR7" s="8">
+      <c r="AS7" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8">
         <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8">
         <v>2.5000000000000001E-3</v>
@@ -3615,23 +3881,23 @@
         <v>206000</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>60</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>17</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>23</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.41</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.24</v>
       </c>
-      <c r="V8">
-        <v>-1</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
@@ -3659,55 +3925,58 @@
       <c r="AE8">
         <v>-1</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8">
+        <v>-1</v>
+      </c>
+      <c r="AG8" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0.2</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AK8" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>0.6</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0.2</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>10</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>50</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>10</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0.1</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>8</v>
       </c>
-      <c r="AR8" s="8">
+      <c r="AS8" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9">
         <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9">
         <v>2.5000000000000001E-3</v>
@@ -3749,23 +4018,23 @@
         <v>206000</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>60</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>17</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>23</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1.3819999999999999</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.23799999999999999</v>
       </c>
-      <c r="V9">
-        <v>-1</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
@@ -3793,55 +4062,58 @@
       <c r="AE9">
         <v>-1</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9">
+        <v>-1</v>
+      </c>
+      <c r="AG9" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0.2</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AK9" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>0.6</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>0.2</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>10</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>50</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>10</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>0.1</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>8</v>
       </c>
-      <c r="AR9" s="8">
+      <c r="AS9" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10">
         <v>1.2500000000000001E-2</v>
@@ -3883,23 +4155,23 @@
         <v>206000</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>33.5</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>36.5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>30</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.1279999999999999</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.32200000000000001</v>
       </c>
-      <c r="V10">
-        <v>-1</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -3927,55 +4199,58 @@
       <c r="AE10">
         <v>-1</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10">
+        <v>-1</v>
+      </c>
+      <c r="AG10" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.2</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AK10" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>0.6</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>0.2</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>10</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>50</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>10</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>0.1</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>8</v>
       </c>
-      <c r="AR10" s="8">
+      <c r="AS10" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11">
         <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11">
         <v>2.5000000000000001E-3</v>
@@ -4017,23 +4292,23 @@
         <v>206000</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>17.100000000000001</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>27.9</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>55</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.99</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.39</v>
       </c>
-      <c r="V11">
-        <v>-1</v>
-      </c>
       <c r="W11">
         <v>-1</v>
       </c>
@@ -4061,55 +4336,58 @@
       <c r="AE11">
         <v>-1</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11">
+        <v>-1</v>
+      </c>
+      <c r="AG11" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>0.2</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AK11" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>0.6</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>0.2</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>10</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>50</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>10</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>0.1</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>8</v>
       </c>
-      <c r="AR11" s="8">
+      <c r="AS11" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12">
         <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12">
         <v>2.5000000000000001E-3</v>
@@ -4151,23 +4429,23 @@
         <v>206000</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>33.299999999999997</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>31.7</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>35</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1.2210000000000001</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.32900000000000001</v>
       </c>
-      <c r="V12">
-        <v>-1</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
@@ -4195,55 +4473,58 @@
       <c r="AE12">
         <v>-1</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12">
+        <v>-1</v>
+      </c>
+      <c r="AG12" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>0.2</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AK12" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>0.6</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>0.2</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>10</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>50</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>10</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>0.1</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>8</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AS12" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13">
         <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13">
         <v>2.5000000000000001E-3</v>
@@ -4285,23 +4566,23 @@
         <v>206000</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>38.5</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>36.5</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>25</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.262</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.28799999999999998</v>
       </c>
-      <c r="V13">
-        <v>-1</v>
-      </c>
       <c r="W13">
         <v>-1</v>
       </c>
@@ -4329,43 +4610,46 @@
       <c r="AE13">
         <v>-1</v>
       </c>
-      <c r="AF13" s="8">
+      <c r="AF13">
+        <v>-1</v>
+      </c>
+      <c r="AG13" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0.2</v>
       </c>
-      <c r="AJ13" s="8">
+      <c r="AK13" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.6</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.2</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>10</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>50</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>10</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>0.1</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>8</v>
       </c>
-      <c r="AR13" s="8">
+      <c r="AS13" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -4385,13 +4669,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -4408,7 +4692,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -4439,16 +4723,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -4483,10 +4767,10 @@
         <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -4524,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
@@ -4562,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -4600,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
@@ -4638,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>126</v>
       </c>
@@ -4676,9 +4960,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" s="1">
         <v>39187</v>
@@ -4714,9 +4998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="1">
         <v>39187</v>
@@ -4767,20 +5051,20 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="8" width="16.6640625" customWidth="1"/>
-    <col min="12" max="13" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="8" width="16.7109375" customWidth="1"/>
+    <col min="12" max="13" width="8.140625" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4803,7 +5087,7 @@
         <v>121</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>57</v>
@@ -4833,19 +5117,19 @@
         <v>94</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>96</v>
       </c>
       <c r="T1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="W1" s="10" t="s">
         <v>61</v>
@@ -4872,7 +5156,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
@@ -4961,7 +5245,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>131</v>
       </c>
@@ -5050,7 +5334,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -5154,17 +5438,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
         <v>155</v>
@@ -5176,7 +5460,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>135</v>
       </c>
@@ -5184,7 +5468,7 @@
         <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -5193,7 +5477,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>135</v>
       </c>
@@ -5201,7 +5485,7 @@
         <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -5210,7 +5494,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>135</v>
       </c>
@@ -5218,7 +5502,7 @@
         <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -5227,7 +5511,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>136</v>
       </c>
@@ -5235,7 +5519,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -5244,7 +5528,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>136</v>
       </c>
@@ -5252,7 +5536,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -5275,75 +5559,75 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="17"/>
+    <col min="4" max="4" width="22.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="B2" s="17">
         <v>2</v>
@@ -5388,7 +5672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5403,64 +5687,64 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="22.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="B2" s="17">
         <v>0.6</v>
@@ -5494,6 +5778,96 @@
       </c>
       <c r="L2" s="17">
         <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DD76A8-2F98-4905-8B6A-7CB0B9B3FF81}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="8">
+        <v>-100000</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>1E-3</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5510,12 +5884,12 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5544,7 +5918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
@@ -5587,14 +5961,14 @@
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -5662,10 +6036,10 @@
         <v>45</v>
       </c>
       <c r="W1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>135</v>
       </c>
@@ -5736,7 +6110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>136</v>
       </c>
@@ -5807,23 +6181,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="10" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
     </row>
@@ -5838,24 +6212,24 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5869,16 +6243,16 @@
         <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="I1" t="s">
         <v>157</v>
@@ -5893,7 +6267,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -5922,7 +6296,7 @@
         <v>38838</v>
       </c>
       <c r="J2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -5931,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>122</v>
       </c>
@@ -5961,7 +6335,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>122</v>
       </c>
@@ -5987,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>123</v>
       </c>
@@ -6013,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>123</v>
       </c>
@@ -6039,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
@@ -6065,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>124</v>
       </c>
@@ -6091,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>125</v>
       </c>
@@ -6120,7 +6494,7 @@
         <v>38816</v>
       </c>
       <c r="J9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -6129,7 +6503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>125</v>
       </c>
@@ -6159,7 +6533,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>125</v>
       </c>
@@ -6185,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>125</v>
       </c>
@@ -6211,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>125</v>
       </c>
@@ -6237,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>125</v>
       </c>
@@ -6263,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>125</v>
       </c>
@@ -6289,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>126</v>
       </c>
@@ -6315,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>126</v>
       </c>
@@ -6341,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>126</v>
       </c>
@@ -6367,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>126</v>
       </c>
@@ -6393,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>126</v>
       </c>
@@ -6419,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>126</v>
       </c>
@@ -6459,18 +6833,18 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>66</v>
@@ -6494,16 +6868,16 @@
         <v>163</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="K1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>144</v>
       </c>
@@ -6538,9 +6912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3">
         <v>1.6</v>
@@ -6573,9 +6947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4">
         <v>1.6</v>
@@ -6622,28 +6996,28 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
         <v>238</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>239</v>
       </c>
-      <c r="D1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6661,43 +7035,120 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="L2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="L3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="L4" t="s">
+        <v>272</v>
+      </c>
+      <c r="M4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="L6" t="s">
+        <v>268</v>
+      </c>
+      <c r="M6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="L7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="L8" t="s">
+        <v>274</v>
+      </c>
+      <c r="M8" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6710,9 +7161,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6744,12 +7195,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
@@ -6757,7 +7208,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>169</v>
       </c>
